--- a/Daily Reports/Coffee Shop 2.xlsx
+++ b/Daily Reports/Coffee Shop 2.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calin.grigorescu\Documents\UiPath\ExcelConsolidation\Daily Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\npanda5\Documents\UiPath\UIPath Academy\Excel Report\Daily Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCAF19C-AD60-40E9-8452-6350BD5C8782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F58CC52-24C6-4B97-A19C-0DC16DDA758F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="990" yWindow="1290" windowWidth="21600" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NewSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
